--- a/config_1.5/fish_face_config.xlsx
+++ b/config_1.5/fish_face_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -149,15 +149,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>金牛送福，财源滚滚！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>有本事打倒我，送你金元宝！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛气冲天，大吉大利！</t>
+    <t>打到我得星星，换奖品！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸿运当头，星途璀璨！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>五星送福，财源广进！</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -568,7 +568,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I27" sqref="I27"/>
+      <selection pane="topRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
